--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2703901.267765377</v>
+        <v>2842036.701611807</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5252489.289474518</v>
+        <v>5542918.958479391</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>249.9399305751028</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>76.54076221230328</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>216.7894983338565</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>92.33836816343288</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>340.9133312969608</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>89.08977675518832</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>110.7371095745887</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>51.93167559174341</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>214.6205850680693</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>54.54187421122502</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>120.0437808176577</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>157.0860622474449</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>247.9173522095923</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1537,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>12.82988994717975</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>61.92573389409772</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>278.9434796996504</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>73.59416316343527</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,7 +1824,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>75.73201610192017</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1856,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>81.63292026168386</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>90.75414788976843</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2302,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.602641900785378</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>200.5638044705575</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>89.1232332956499</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>85.44842650575903</v>
       </c>
     </row>
     <row r="32">
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>86.73226015562122</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>264.5762848854865</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>200.4361832711066</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3566,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3743,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>245.5626865613227</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.6830949419552</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>285.2623811989213</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>70.14557982003986</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4186,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.89967003128395</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.849226997886</v>
+        <v>967.1113293026272</v>
       </c>
       <c r="C2" t="n">
-        <v>768.948497011186</v>
+        <v>944.2510033563314</v>
       </c>
       <c r="D2" t="n">
-        <v>749.6962802365903</v>
+        <v>520.9583825413316</v>
       </c>
       <c r="E2" t="n">
-        <v>497.2317038981026</v>
+        <v>94.98144268918921</v>
       </c>
       <c r="F2" t="n">
-        <v>476.1479261279069</v>
+        <v>73.89766491899351</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>996.5799837771733</v>
       </c>
       <c r="M2" t="n">
-        <v>1728.043288159434</v>
+        <v>996.5799837771733</v>
       </c>
       <c r="N2" t="n">
-        <v>1728.043288159434</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1473.25005561526</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.67405208597</v>
+        <v>1395.936154390712</v>
       </c>
       <c r="X2" t="n">
-        <v>1212.954053253717</v>
+        <v>1388.256559598863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.657187249012</v>
+        <v>982.9192895537532</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.542625066816</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843207</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996057</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725429</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554471</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730511</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>133.8657769972725</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>405.5632662768636</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>431.0641291835322</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>910.0030534259602</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662885</v>
+        <v>910.0030534259602</v>
       </c>
       <c r="N3" t="n">
-        <v>1407.269712569019</v>
+        <v>910.0030534259602</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>910.0030534259602</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.941977668388</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.087454531167</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177125</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474803</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.13438539444</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533706</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366923</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335863</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868787</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>683.9339205885998</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>683.9339205885998</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1626.620331795017</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="U4" t="n">
-        <v>1346.435883295321</v>
+        <v>1484.78726863531</v>
       </c>
       <c r="V4" t="n">
-        <v>1346.435883295321</v>
+        <v>1484.78726863531</v>
       </c>
       <c r="W4" t="n">
-        <v>1346.435883295321</v>
+        <v>1209.934864807823</v>
       </c>
       <c r="X4" t="n">
-        <v>1346.435883295321</v>
+        <v>967.3709682536279</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.093114985063</v>
+        <v>874.0998893006654</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.464719255012</v>
+        <v>891.2873795073754</v>
       </c>
       <c r="C5" t="n">
-        <v>907.563989268312</v>
+        <v>868.4270535610796</v>
       </c>
       <c r="D5" t="n">
-        <v>888.3117724937163</v>
+        <v>849.1748367864839</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525203</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525203</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X5" t="n">
-        <v>1755.609949551248</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.272679506138</v>
+        <v>1311.135743798905</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254695</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254695</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M6" t="n">
-        <v>932.0278096358747</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>916.1799496090923</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="C7" t="n">
-        <v>804.324283372134</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>641.0075104989047</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>474.7993046517582</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>2125.416401178091</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.231952678395</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.086614473545</v>
+        <v>1563.520485286424</v>
       </c>
       <c r="W7" t="n">
-        <v>1385.086614473545</v>
+        <v>1288.668081458937</v>
       </c>
       <c r="X7" t="n">
-        <v>1142.52271791935</v>
+        <v>1046.104184904742</v>
       </c>
       <c r="Y7" t="n">
-        <v>916.1799496090923</v>
+        <v>1046.104184904742</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1773.401994551945</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.501264565245</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D8" t="n">
-        <v>923.2086437502451</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>497.2317038981026</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1903.75548856979</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1645.400579166203</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1287.911164292452</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>891.5198145927989</v>
       </c>
       <c r="X8" t="n">
-        <v>1790.506820807776</v>
+        <v>883.8402198009502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1789.209954803071</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>490.8953374243588</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484407</v>
+        <v>490.8953374243588</v>
       </c>
       <c r="L9" t="n">
-        <v>393.2225928484407</v>
+        <v>490.8953374243588</v>
       </c>
       <c r="M9" t="n">
-        <v>393.2225928484407</v>
+        <v>1041.560872408797</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484407</v>
+        <v>1592.226407393235</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511716</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>301.9646052129327</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="C10" t="n">
-        <v>180.7082609526723</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="D10" t="n">
-        <v>180.7082609526723</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="E10" t="n">
-        <v>180.7082609526723</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>180.7082609526723</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1275.037213454714</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>993.3257460627433</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>718.4733422352563</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>718.4733422352563</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>492.1305739249983</v>
+        <v>526.4132374723006</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1154.145610048728</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>727.244880062028</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>476.8233121735509</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>476.8233121735509</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>72.48424976299955</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299955</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>435.0877085798951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1332.080299397015</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2229.072890214134</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3126.065481031254</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3506.656153268075</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268075</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268075</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149978</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194611</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791023</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.442592917273</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.05124321762</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1979.331244385367</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1573.993974340258</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M12" t="n">
-        <v>344.1817390425906</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N12" t="n">
-        <v>909.6712922473346</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>586.9412763995904</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C13" t="n">
-        <v>414.9687132785064</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D13" t="n">
-        <v>251.6519404052771</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E13" t="n">
-        <v>85.44373455813061</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F13" t="n">
-        <v>85.44373455813061</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G13" t="n">
-        <v>85.44373455813061</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>85.44373455813061</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.577781195567</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V13" t="n">
-        <v>1520.866313803596</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W13" t="n">
-        <v>1246.013909976109</v>
+        <v>1488.13353108875</v>
       </c>
       <c r="X13" t="n">
-        <v>1003.450013421914</v>
+        <v>1245.569634534556</v>
       </c>
       <c r="Y13" t="n">
-        <v>777.107245111656</v>
+        <v>1019.226866224298</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>1901.384283293027</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>1901.384283293027</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>2798.376874110147</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O14" t="n">
-        <v>2798.376874110147</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268074</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3624.212488149977</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3624.212488149977</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3212.492489317724</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>662.9691763313391</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>662.9691763313391</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M15" t="n">
-        <v>662.9691763313391</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.02640348073</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>656.8643315055941</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8917683845101</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8917683845101</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E16" t="n">
-        <v>318.6835625373636</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F16" t="n">
-        <v>146.8217883119241</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2205.858663863301</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1962.519316089201</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1682.334867589505</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1400.623400197534</v>
+        <v>1465.521297789934</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.770996370047</v>
+        <v>1190.668893962447</v>
       </c>
       <c r="X16" t="n">
-        <v>883.2070998158521</v>
+        <v>948.1049974082518</v>
       </c>
       <c r="Y16" t="n">
-        <v>656.8643315055941</v>
+        <v>721.7622290979939</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5601,13 +5603,13 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4478291472353</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1702.900136311747</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1428.04773248426</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1171.715112440168</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2101.340160059445</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3105.626261478503</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478503</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629315</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5837,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>795.2884438199453</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>623.3158806988613</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>459.999107825632</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>459.999107825632</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>459.999107825632</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>293.7421381198641</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>615.9842888225141</v>
+        <v>540.3008144924045</v>
       </c>
       <c r="C25" t="n">
-        <v>444.0117257014301</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="D25" t="n">
-        <v>444.0117257014301</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E25" t="n">
-        <v>277.8035198542836</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F25" t="n">
-        <v>105.9417456288441</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1032.493025844838</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.1502575345799</v>
+        <v>540.3008144924045</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F27" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U27" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V27" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W27" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683193</v>
+        <v>968.3942625403945</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>796.4216994193105</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>796.4216994193105</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>630.213493572164</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>458.3517193467244</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>292.0947496409565</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>1437.300927404847</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>1194.737030850652</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>968.3942625403945</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>703.6175873656338</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>531.6450242445497</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>703.6175873656338</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4005.743540734348</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>3833.770977613264</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>3670.454204740035</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>3504.245998892889</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>3332.384224667449</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>3166.127254961681</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>3022.330986469835</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4945.000622810562</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4664.816174310867</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V34" t="n">
-        <v>4664.816174310867</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W34" t="n">
-        <v>4664.816174310867</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X34" t="n">
-        <v>4422.252277756672</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>4195.909509446414</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614083</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100784</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905341</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409524</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7023,13 +7025,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7135,10 +7137,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>830.0322346619018</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>603.6894663516439</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7254,19 +7256,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1633.42609040768</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1206.52536042098</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1206.52536042098</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>780.548420568838</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>355.4242387582382</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.596016555394</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M41" t="n">
-        <v>2047.588607372513</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N41" t="n">
-        <v>2322.982358494981</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O41" t="n">
-        <v>3168.127008645793</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P41" t="n">
-        <v>3168.127008645793</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3266.723073276225</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2870.331723576573</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2458.61172474432</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2053.27445469921</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>942.113308572842</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="M42" t="n">
-        <v>942.113308572842</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="N42" t="n">
-        <v>942.113308572842</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O42" t="n">
-        <v>942.113308572842</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>548.7456938077595</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>548.7456938077595</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D43" t="n">
-        <v>548.7456938077595</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E43" t="n">
-        <v>382.537487960613</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F43" t="n">
-        <v>382.537487960613</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G43" t="n">
-        <v>216.2805182548451</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299953</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.19982010864</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.488352716669</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W43" t="n">
-        <v>955.6359488891819</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X43" t="n">
-        <v>713.072052334987</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>548.7456938077595</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>217.7264077231201</v>
+        <v>366.6855125151242</v>
       </c>
       <c r="K44" t="n">
-        <v>933.2347156986192</v>
+        <v>1082.193820490623</v>
       </c>
       <c r="L44" t="n">
-        <v>1830.227306515738</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M44" t="n">
-        <v>2727.219897332857</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N44" t="n">
-        <v>3624.212488149976</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3624.212488149976</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>3624.212488149976</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3624.212488149976</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3624.212488149976</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3336.068668757126</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>351.6283820045024</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>1164.974163305011</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>1164.974163305011</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>1164.974163305011</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>1164.974163305011</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>679.4039282424765</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C46" t="n">
-        <v>507.4313651213924</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D46" t="n">
-        <v>344.1145922481631</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="E46" t="n">
-        <v>344.1145922481631</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2528180227235</v>
+        <v>272.9254026958959</v>
       </c>
       <c r="G46" t="n">
-        <v>172.2528180227235</v>
+        <v>272.9254026958959</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U46" t="n">
-        <v>1559.238433421467</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.526966029496</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.674562202009</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X46" t="n">
-        <v>760.1106656478138</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y46" t="n">
-        <v>679.4039282424765</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>522.0887335865906</v>
       </c>
       <c r="M2" t="n">
-        <v>456.5787613602907</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>501.5097810124959</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641989</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>48.15768121380667</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681972</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>465.9293750477953</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587963</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8146,13 +8148,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740638</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N5" t="n">
-        <v>457.1346235160602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>266.2788756958121</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>458.3324042602121</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8383,13 +8385,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>320.1078160920833</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>114.5898268852865</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>88.51522805109136</v>
       </c>
       <c r="K9" t="n">
-        <v>382.3089311945595</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8614,10 +8616,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>400.5044494188121</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701173</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369262</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719405</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>421.8259818174598</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>744.2217369616194</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,10 +8777,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>594.2983494060087</v>
       </c>
       <c r="N12" t="n">
-        <v>592.5445971072224</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>921.6378271075471</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>796.6840290362928</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>783.0169950311083</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9249,16 +9251,16 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9401,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>749.7130252568744</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9960,7 +9962,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726429</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>492.8628464086323</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10671,16 +10673,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>124.3756766890863</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>315.4551290187567</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>105.9095497086629</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>25.72212415780719</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>418.6332501171366</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>176.1292099503548</v>
+        <v>296.4732919192185</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>844.0764819672689</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>425.7272987035383</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>171.1423423972574</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.94099262994703</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>210.1781458951144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.3404176450081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>91.00023684527491</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>203.1623366161312</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>197.2614324563675</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>71.98949189919249</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>51.60415791715872</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>160.9917581079248</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>23.51553615659788</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>53.23507251127725</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>138.6309141213964</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>12.03862242150556</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>7.527594903725571</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>39.70207431754633</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>22.1301998828651</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>154.7329852251231</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>61.39624568520014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>122.3404176450089</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26038,7 +26040,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>72.21272598688729</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.1796705958714</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481254.473452481</v>
+        <v>481713.4371428739</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481254.473452481</v>
+        <v>483199.4608823729</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481254.473452481</v>
+        <v>483199.4608823729</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>380269.8961756391</v>
+        <v>478256.5493059259</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>380269.896175639</v>
+        <v>478256.549305926</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478256.5493059259</v>
+        <v>478256.5493059258</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>478256.5493059259</v>
+        <v>478256.5493059258</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>478256.5493059259</v>
+        <v>478256.549305926</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478256.5493059259</v>
+        <v>478256.549305926</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>380269.8961756389</v>
+        <v>478256.5493059259</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>380269.896175639</v>
+        <v>478256.5493059259</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553320.5346106048</v>
+        <v>553320.5346106049</v>
       </c>
       <c r="C2" t="n">
-        <v>553320.5346106048</v>
+        <v>553320.534610605</v>
       </c>
       <c r="D2" t="n">
-        <v>553320.534610605</v>
+        <v>553320.5346106046</v>
       </c>
       <c r="E2" t="n">
-        <v>424545.0315558379</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="F2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.882980575</v>
       </c>
       <c r="G2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="H2" t="n">
+        <v>533928.8829805747</v>
+      </c>
+      <c r="I2" t="n">
         <v>533928.882980575</v>
       </c>
-      <c r="I2" t="n">
-        <v>533928.8829805747</v>
-      </c>
       <c r="J2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805746</v>
       </c>
       <c r="K2" t="n">
         <v>533928.8829805747</v>
       </c>
       <c r="L2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="M2" t="n">
         <v>533928.8829805749</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="N2" t="n">
-        <v>533928.8829805746</v>
-      </c>
       <c r="O2" t="n">
-        <v>424545.0315558379</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="P2" t="n">
-        <v>424545.0315558377</v>
+        <v>533928.8829805749</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176510.6008550963</v>
+        <v>171848.3668116666</v>
       </c>
       <c r="C4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>23382.1328306456</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>23382.1328306456</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591146</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591146</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26451,13 +26453,13 @@
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
+        <v>29432.2870559115</v>
+      </c>
+      <c r="O4" t="n">
         <v>29432.28705591149</v>
       </c>
-      <c r="O4" t="n">
-        <v>23382.13283064559</v>
-      </c>
       <c r="P4" t="n">
-        <v>23382.13283064559</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160503.4988671596</v>
+        <v>156306.2489071859</v>
       </c>
       <c r="C6" t="n">
-        <v>315129.2194852801</v>
+        <v>305714.3740938291</v>
       </c>
       <c r="D6" t="n">
-        <v>315129.2194852805</v>
+        <v>329121.2077674411</v>
       </c>
       <c r="E6" t="n">
-        <v>213311.2008957107</v>
+        <v>211007.1771795931</v>
       </c>
       <c r="F6" t="n">
-        <v>346074.8689053126</v>
+        <v>426746.5337362338</v>
       </c>
       <c r="G6" t="n">
-        <v>324586.6136419239</v>
+        <v>426746.5337362337</v>
       </c>
       <c r="H6" t="n">
+        <v>426746.5337362336</v>
+      </c>
+      <c r="I6" t="n">
         <v>426746.5337362338</v>
       </c>
-      <c r="I6" t="n">
-        <v>426746.5337362335</v>
-      </c>
       <c r="J6" t="n">
-        <v>306024.0167934768</v>
+        <v>300169.2651559447</v>
       </c>
       <c r="K6" t="n">
-        <v>426746.5337362335</v>
+        <v>408099.9333792137</v>
       </c>
       <c r="L6" t="n">
+        <v>426746.5337362338</v>
+      </c>
+      <c r="M6" t="n">
+        <v>246682.6622810661</v>
+      </c>
+      <c r="N6" t="n">
+        <v>426746.5337362336</v>
+      </c>
+      <c r="O6" t="n">
         <v>426746.5337362337</v>
       </c>
-      <c r="M6" t="n">
-        <v>315937.1736271002</v>
-      </c>
-      <c r="N6" t="n">
-        <v>426746.5337362335</v>
-      </c>
-      <c r="O6" t="n">
-        <v>346074.8689053127</v>
-      </c>
       <c r="P6" t="n">
-        <v>346074.8689053125</v>
+        <v>426746.5337362337</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374944</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>171.7772398785182</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>315.8866739903533</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>24.11645596250253</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>131.7409724637225</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>80.80383915666016</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>318.5130220887419</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.51572791528442</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>188.9742787046156</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>4.095730177743832</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>353.0609246327052</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>50.20905667221543</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -28020,10 +28022,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>66.99327837971046</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M2" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>464.2301581780499</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25.75844738047333</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34866,13 +34868,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709419893</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="N5" t="n">
-        <v>419.8550006816142</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>435.2356237478841</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,13 +35105,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>299.3589151164829</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>67.90411371775802</v>
       </c>
       <c r="K9" t="n">
-        <v>359.9096973612262</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35334,10 +35336,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>377.9290095273263</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374944</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374944</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374944</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>384.4350224614357</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>706.646375151388</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>571.2015688936807</v>
       </c>
       <c r="N12" t="n">
-        <v>571.2015688936808</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>898.4659373853249</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>758.3719866036699</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>761.6739668175667</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>713.9484244620651</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>727.7457359732111</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>455.4718870526082</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37391,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>86.80031487885498</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>278.1755061843107</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>69.78487510406481</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3.207037443577633</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>396.862408912308</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.7092504647683</v>
+        <v>267.053332433632</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>821.5613952530393</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2842036.701611807</v>
+        <v>2841340.040406717</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>175.899370464215</v>
       </c>
       <c r="W2" t="n">
-        <v>76.54076221230328</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>76.73161441300525</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.33836816343288</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>305.8531234524513</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>340.9133312969608</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>125.4203831793929</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>51.93167559174341</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1144,10 +1144,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>91.95099899694981</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>214.6205850680693</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1195,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.0860622474449</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>58.31517967031836</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>61.92573389409772</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1767,16 +1767,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1824,7 +1824,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>75.73201610192017</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399271</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>81.63292026168386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>90.75414788976843</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.5638044705575</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>89.1232332956499</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.44842650575903</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>8.209635605837841</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3204,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>264.5762848854865</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>103.8121020651557</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>200.4361832711066</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439306</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3717,16 +3717,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3909,7 +3909,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>109.2568614709218</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>70.14557982003986</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>967.1113293026272</v>
+        <v>528.1740540056943</v>
       </c>
       <c r="C2" t="n">
-        <v>944.2510033563314</v>
+        <v>505.3137280593985</v>
       </c>
       <c r="D2" t="n">
-        <v>520.9583825413316</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>94.98144268918921</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899351</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884621</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884621</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231741</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347454</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>996.5799837771733</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>996.5799837771733</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373443</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373443</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="Q2" t="n">
         <v>1935.106764615871</v>
@@ -4357,25 +4357,25 @@
         <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489011</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489011</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.739470489011</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.25005561526</v>
+        <v>1757.430632833836</v>
       </c>
       <c r="W2" t="n">
-        <v>1395.936154390712</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="X2" t="n">
-        <v>1388.256559598863</v>
+        <v>949.31928430193</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.9192895537532</v>
+        <v>543.9820142568203</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.542625066816</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843207</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996057</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725429</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554471</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730511</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353607</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972725</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>405.5632662768636</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>431.0641291835322</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>910.0030534259602</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M3" t="n">
-        <v>910.0030534259602</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="N3" t="n">
-        <v>910.0030534259602</v>
+        <v>343.3471304404884</v>
       </c>
       <c r="O3" t="n">
-        <v>910.0030534259602</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.941977668388</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531167</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177125</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474803</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.13438539444</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533706</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366923</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335863</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868787</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>683.9339205885998</v>
+        <v>215.9773847772993</v>
       </c>
       <c r="C4" t="n">
-        <v>683.9339205885998</v>
+        <v>215.9773847772993</v>
       </c>
       <c r="D4" t="n">
-        <v>520.6171477153705</v>
+        <v>215.9773847772993</v>
       </c>
       <c r="E4" t="n">
-        <v>520.6171477153705</v>
+        <v>215.9773847772993</v>
       </c>
       <c r="F4" t="n">
-        <v>348.7553734899309</v>
+        <v>215.9773847772993</v>
       </c>
       <c r="G4" t="n">
-        <v>182.498403784163</v>
+        <v>215.9773847772993</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231741</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647543</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968734999</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679207</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615871</v>
@@ -4518,22 +4518,22 @@
         <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.971717135006</v>
+        <v>1521.632369360906</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.78726863531</v>
+        <v>1241.44792086121</v>
       </c>
       <c r="V4" t="n">
-        <v>1484.78726863531</v>
+        <v>959.7364534692392</v>
       </c>
       <c r="W4" t="n">
-        <v>1209.934864807823</v>
+        <v>684.8840496417522</v>
       </c>
       <c r="X4" t="n">
-        <v>967.3709682536279</v>
+        <v>442.3201530875573</v>
       </c>
       <c r="Y4" t="n">
-        <v>874.0998893006654</v>
+        <v>215.9773847772993</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>891.2873795073754</v>
+        <v>450.9088339743233</v>
       </c>
       <c r="C5" t="n">
-        <v>868.4270535610796</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D5" t="n">
-        <v>849.1748367864839</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1724.152608635864</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1312.432609803611</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1311.135743798905</v>
+        <v>870.7571982658534</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>287.7093087981016</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>287.7093087981016</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>287.7093087981016</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M6" t="n">
+        <v>602.6104029955975</v>
+      </c>
+      <c r="N6" t="n">
+        <v>602.6104029955975</v>
+      </c>
+      <c r="O6" t="n">
         <v>838.3748437825398</v>
-      </c>
-      <c r="N6" t="n">
-        <v>838.3748437825398</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
         <v>1389.040378766978</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>855.9382161926764</v>
+        <v>1010.801766558675</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>838.8292034375913</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>675.512430564362</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>509.3042247172156</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>337.442450491776</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>171.1854807860081</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2125.416401178091</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1845.231952678395</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V7" t="n">
-        <v>1563.520485286424</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="W7" t="n">
-        <v>1288.668081458937</v>
+        <v>1669.874400135194</v>
       </c>
       <c r="X7" t="n">
-        <v>1046.104184904742</v>
+        <v>1427.310503580999</v>
       </c>
       <c r="Y7" t="n">
-        <v>1046.104184904742</v>
+        <v>1200.967735270741</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.7353935451185</v>
+        <v>555.2761281011831</v>
       </c>
       <c r="C8" t="n">
-        <v>843.8750675988227</v>
+        <v>532.4158021548873</v>
       </c>
       <c r="D8" t="n">
-        <v>824.622850824227</v>
+        <v>513.1635853802916</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>491.2270495685532</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>470.1432717983575</v>
       </c>
       <c r="G8" t="n">
         <v>377.2634748317415</v>
@@ -4810,16 +4810,16 @@
         <v>572.914647509062</v>
       </c>
       <c r="L8" t="n">
-        <v>572.914647509062</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1903.75548856979</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1645.400579166203</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1287.911164292452</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>891.5198145927989</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X8" t="n">
-        <v>883.8402198009502</v>
+        <v>976.4213583974188</v>
       </c>
       <c r="Y8" t="n">
-        <v>882.5433537962446</v>
+        <v>571.0840883523091</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>490.8953374243588</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>490.8953374243588</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>490.8953374243588</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>1041.560872408797</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1592.226407393235</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>526.4132374723006</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>526.4132374723006</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>526.4132374723006</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>526.4132374723006</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
@@ -5041,7 +5041,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,43 +5050,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>374.0002026854196</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>939.4897558901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>939.4897558901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1019.226866224298</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="C13" t="n">
-        <v>847.2543031032136</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="D13" t="n">
-        <v>683.9375302299843</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="E13" t="n">
-        <v>517.7293243828378</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F13" t="n">
-        <v>345.8675501573982</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
         <v>345.8675501573982</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1488.13353108875</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1245.569634534556</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1019.226866224298</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="14">
@@ -5296,25 +5296,25 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P14" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
         <v>3777.607131232208</v>
@@ -5363,19 +5363,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>531.5962603859283</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C16" t="n">
-        <v>531.5962603859283</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D16" t="n">
-        <v>368.279487512699</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E16" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1465.521297789934</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.668893962447</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>948.1049974082518</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>721.7622290979939</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>2837.654482149729</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3813.90554063643</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5600,13 +5600,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1702.900136311747</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1428.04773248426</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.483835930065</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1185.483835930065</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N20" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5837,13 +5837,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>795.2884438199453</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>623.3158806988613</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>459.999107825632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>459.999107825632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>459.999107825632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>293.7421381198641</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.454412532011</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>540.3008144924045</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>368.3282513713204</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>368.3282513713204</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>368.3282513713204</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.3008144924045</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6244,10 +6244,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4935.721337874071</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>4025.820723818557</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>968.3942625403945</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>796.4216994193105</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>796.4216994193105</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>630.213493572164</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>458.3517193467244</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>292.0947496409565</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.153331232334</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.300927404847</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1194.737030850652</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>968.3942625403945</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>188.235025135897</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>903.7433331113961</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1833.368380730673</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.654482149731</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6542,22 +6542,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>703.6175873656338</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>531.6450242445497</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>703.6175873656338</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6782,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>1869.241345563992</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W34" t="n">
-        <v>1601.992572952389</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614083</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100784</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251596</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409524</v>
@@ -7019,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>305.3113489363686</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>603.6894663516439</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>603.6894663516439</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D37" t="n">
-        <v>440.3726934784146</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7137,10 +7137,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>830.0322346619018</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>603.6894663516439</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7180,7 +7180,7 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M38" t="n">
         <v>2988.069926596601</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N39" t="n">
-        <v>692.7876399741681</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1416.431999974578</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1880.577476837357</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402535</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281451</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408221</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561075</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>4654.622661723634</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4654.622661723634</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>4654.622661723634</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.412502424859</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7414,25 +7414,25 @@
         <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2398.817321261059</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N41" t="n">
-        <v>3375.06837974776</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O41" t="n">
-        <v>4220.213029898572</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P41" t="n">
-        <v>4928.4923090565</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291426</v>
@@ -7441,7 +7441,7 @@
         <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7493,16 +7493,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>105.4776804749704</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M42" t="n">
-        <v>105.4776804749704</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N42" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O42" t="n">
         <v>1194.79262694784</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808981</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357521</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886056</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F43" t="n">
         <v>512.124519863166</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V43" t="n">
-        <v>2119.408873334071</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506584</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>1430.130798726949</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>1203.788030416692</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,13 +7648,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>366.6855125151242</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1082.193820490623</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.8188681099</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
         <v>2011.8188681099</v>
@@ -7724,22 +7724,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>964.4851292537592</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L45" t="n">
-        <v>964.4851292537592</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M45" t="n">
-        <v>964.4851292537592</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.825557038856</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O45" t="n">
         <v>1364.825557038856</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.7597400424195</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>444.7871769213355</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7871769213355</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7871769213355</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>272.9254026958959</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>272.9254026958959</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7836,22 +7836,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1550.684777446425</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.832373618938</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1033.268477064743</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>806.9257087544852</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.541291948777</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865906</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>501.5097810124959</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>158.4392851313968</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641989</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>48.15768121380667</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681972</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>329.0652455349265</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587963</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.258252009462</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>29.03818836740638</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8224,19 +8224,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>571.1852249800525</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>266.2788756958121</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8309,10 +8309,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>261.3177895070124</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8458,7 +8458,7 @@
         <v>569.51856287543</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8470,7 +8470,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8531,13 +8531,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>88.51522805109136</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>173.1511355154377</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
@@ -8546,7 +8546,7 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8555,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>772.3958632350179</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>744.2217369616194</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8768,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>594.2983494060087</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>124.3756766890872</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235017</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9248,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9406,10 +9406,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314277</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N21" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
-        <v>217.3512730059682</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>253.9768642681691</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>779.697912545697</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>528.4187726313924</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>765.1769988726429</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10667,7 +10667,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804204</v>
       </c>
       <c r="M38" t="n">
-        <v>924.3306556055946</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>54.3929872213976</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>772.3958632350179</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>105.9095497086629</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>25.72212415780719</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>296.4732919192185</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,7 +11305,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,10 +11387,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>425.7272987035383</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>129.9491293546266</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>210.1781458951144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23673,7 +23673,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>203.1623366161312</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>197.2614324563675</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>51.60415791715872</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>23.51553615659788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>53.23507251127725</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.6309141213964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>153.4739695386592</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>7.527594903725571</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>66.44073542471746</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>39.70207431754633</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>130.8813961177311</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>72.21272598688729</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478256.5493059259</v>
+        <v>478256.5493059258</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>478256.549305926</v>
+        <v>478256.5493059259</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478256.5493059258</v>
+        <v>478256.5493059259</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>478256.5493059258</v>
+        <v>478256.5493059259</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478256.549305926</v>
+        <v>478256.5493059259</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553320.534610605</v>
+      </c>
+      <c r="C2" t="n">
         <v>553320.5346106049</v>
       </c>
-      <c r="C2" t="n">
-        <v>553320.534610605</v>
-      </c>
       <c r="D2" t="n">
-        <v>553320.5346106046</v>
+        <v>553320.5346106049</v>
       </c>
       <c r="E2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.882980575</v>
       </c>
       <c r="F2" t="n">
         <v>533928.882980575</v>
       </c>
       <c r="G2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="H2" t="n">
         <v>533928.8829805747</v>
@@ -26343,16 +26343,16 @@
         <v>533928.8829805747</v>
       </c>
       <c r="L2" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="M2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="N2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="O2" t="n">
         <v>533928.8829805747</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533928.8829805749</v>
       </c>
       <c r="P2" t="n">
         <v>533928.8829805749</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695911</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361233</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802887</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701988</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591146</v>
+        <v>29432.28705591149</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591146</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26456,7 +26456,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>29432.28705591149</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
         <v>29432.2870559115</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216123</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156306.2489071859</v>
+        <v>156306.248907186</v>
       </c>
       <c r="C6" t="n">
-        <v>305714.3740938291</v>
+        <v>305714.374093829</v>
       </c>
       <c r="D6" t="n">
-        <v>329121.2077674411</v>
+        <v>329121.2077674414</v>
       </c>
       <c r="E6" t="n">
-        <v>211007.1771795931</v>
+        <v>210956.146517409</v>
       </c>
       <c r="F6" t="n">
-        <v>426746.5337362338</v>
+        <v>426695.5030740495</v>
       </c>
       <c r="G6" t="n">
-        <v>426746.5337362337</v>
+        <v>426695.5030740493</v>
       </c>
       <c r="H6" t="n">
-        <v>426746.5337362336</v>
+        <v>426695.5030740493</v>
       </c>
       <c r="I6" t="n">
-        <v>426746.5337362338</v>
+        <v>426695.5030740494</v>
       </c>
       <c r="J6" t="n">
-        <v>300169.2651559447</v>
+        <v>300118.2344937604</v>
       </c>
       <c r="K6" t="n">
-        <v>408099.9333792137</v>
+        <v>408048.9027170294</v>
       </c>
       <c r="L6" t="n">
-        <v>426746.5337362338</v>
+        <v>426695.5030740494</v>
       </c>
       <c r="M6" t="n">
-        <v>246682.6622810661</v>
+        <v>246631.6316188818</v>
       </c>
       <c r="N6" t="n">
-        <v>426746.5337362336</v>
+        <v>426695.5030740495</v>
       </c>
       <c r="O6" t="n">
-        <v>426746.5337362337</v>
+        <v>426695.5030740493</v>
       </c>
       <c r="P6" t="n">
-        <v>426746.5337362337</v>
+        <v>426695.5030740494</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26804,10 +26804,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27438,13 +27438,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>178.015150260798</v>
       </c>
       <c r="W2" t="n">
-        <v>315.8866739903533</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>65.6266913939219</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.7409724637225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>116.7785992343816</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>80.80383915666016</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>16.93792262753421</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>188.9742787046156</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,10 +27864,10 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>308.344672789496</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>4.095730177743832</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.99327837971046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>464.2301581780499</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>121.0483257753728</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>25.75844738047333</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>307.7222173213848</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.29359755675</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>6.657387709419893</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>238.1458997847902</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35178,7 +35178,7 @@
         <v>533.7539620806207</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>67.90411371775802</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
@@ -35266,7 +35266,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355862</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>706.646375151388</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>571.2015688936807</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355853</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,10 +36126,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N21" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>742.2666496462653</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>727.7457359732111</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="M38" t="n">
-        <v>886.8993927061629</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>30.72006782725346</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355862</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>69.78487510406481</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>3.207037443577633</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>267.053332433632</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,7 +38025,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
